--- a/2018年全州商业系统通讯录副股级以上干部（此件为准）-update.xlsx
+++ b/2018年全州商业系统通讯录副股级以上干部（此件为准）-update.xlsx
@@ -5916,7 +5916,7 @@
   <sheetPr/>
   <dimension ref="A1:K820"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A493" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
       <selection activeCell="B493" sqref="B493"/>
     </sheetView>
   </sheetViews>
